--- a/distance1.xlsx
+++ b/distance1.xlsx
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.9996001599360257</v>
+        <v>0.9998754617251686</v>
       </c>
       <c r="C2">
-        <v>0.002207705874705332</v>
+        <v>-0.1160569732359572</v>
       </c>
       <c r="D2">
-        <v>0.01079086437714071</v>
+        <v>-0.1452589846447051</v>
       </c>
       <c r="E2">
-        <v>0.00019988005597601</v>
+        <v>-0.1173421221291802</v>
       </c>
       <c r="F2">
-        <v>0.003341547812584613</v>
+        <v>-0.2781916031398435</v>
       </c>
       <c r="G2">
-        <v>0.002479258158944763</v>
+        <v>-0.1281952363153788</v>
       </c>
       <c r="H2">
-        <v>0.01052714385763167</v>
+        <v>-0.116746825051844</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-0.1160569732359571</v>
       </c>
       <c r="J2">
-        <v>0.009793653388846893</v>
+        <v>-0.1679557168335577</v>
       </c>
       <c r="K2">
-        <v>0.01047276160379991</v>
+        <v>-0.1200080487397872</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -485,34 +485,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.002207705874705332</v>
+        <v>-0.1777876277807094</v>
       </c>
       <c r="C3">
-        <v>0.8834355828220859</v>
+        <v>0.9450816003079823</v>
       </c>
       <c r="D3">
-        <v>0.1263064528050854</v>
+        <v>-0.01411779642432419</v>
       </c>
       <c r="E3">
-        <v>0.0007360491091965655</v>
+        <v>-0.1760094714321661</v>
       </c>
       <c r="F3">
-        <v>0.3044632341308208</v>
+        <v>0.4049311009003073</v>
       </c>
       <c r="G3">
-        <v>0.07912453548149308</v>
+        <v>-0.1766368313063158</v>
       </c>
       <c r="H3">
-        <v>0.1296889638098483</v>
+        <v>-0.002696361492497149</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>-0.1777876277807095</v>
       </c>
       <c r="J3">
-        <v>0.1770447827922804</v>
+        <v>-0.01925834139944569</v>
       </c>
       <c r="K3">
-        <v>0.01248786412224395</v>
+        <v>-0.1986186725203526</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -520,34 +520,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.01079086437714071</v>
+        <v>-0.1456924147597039</v>
       </c>
       <c r="C4">
-        <v>0.1263064528050854</v>
+        <v>-0.1456924147597039</v>
       </c>
       <c r="D4">
-        <v>0.9638554216867471</v>
+        <v>0.9920016779142746</v>
       </c>
       <c r="E4">
-        <v>0.009829359429318958</v>
+        <v>-0.1453837115550114</v>
       </c>
       <c r="F4">
-        <v>0.264300756032727</v>
+        <v>0.08257005569808959</v>
       </c>
       <c r="G4">
-        <v>0.09376473374667145</v>
+        <v>-0.1487816831145034</v>
       </c>
       <c r="H4">
-        <v>0.06182701125228537</v>
+        <v>-0.141568512935396</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>-0.1456924147597039</v>
       </c>
       <c r="J4">
-        <v>0.2262523779327838</v>
+        <v>0.006902641883874641</v>
       </c>
       <c r="K4">
-        <v>0.04597115262086062</v>
+        <v>-0.1224944888233552</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -555,34 +555,34 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.00019988005597601</v>
+        <v>-0.1135758875612035</v>
       </c>
       <c r="C5">
-        <v>0.0007360491091965655</v>
+        <v>-0.1135758875612035</v>
       </c>
       <c r="D5">
-        <v>0.009829359429318958</v>
+        <v>-0.1432917813087699</v>
       </c>
       <c r="E5">
-        <v>0.9998000399920016</v>
+        <v>0.9998389510065157</v>
       </c>
       <c r="F5">
-        <v>0.01069509116323822</v>
+        <v>-0.2795818489732725</v>
       </c>
       <c r="G5">
-        <v>0.00064289916222157</v>
+        <v>-0.1261161048946116</v>
       </c>
       <c r="H5">
-        <v>0.0007657635538473922</v>
+        <v>-0.1365732946840098</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-0.1135758875612034</v>
       </c>
       <c r="J5">
-        <v>0.001619109376505266</v>
+        <v>-0.1873461083125093</v>
       </c>
       <c r="K5">
-        <v>0.01017557414479986</v>
+        <v>-0.1185623961417917</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -590,34 +590,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.003341547812584613</v>
+        <v>-0.1599712730445809</v>
       </c>
       <c r="C6">
-        <v>0.3044632341308208</v>
+        <v>-0.1599712730445809</v>
       </c>
       <c r="D6">
-        <v>0.264300756032727</v>
+        <v>0.03230490836239237</v>
       </c>
       <c r="E6">
-        <v>0.01069509116323822</v>
+        <v>-0.1388653766240152</v>
       </c>
       <c r="F6">
-        <v>0.9551098376313277</v>
+        <v>0.9131289008895127</v>
       </c>
       <c r="G6">
-        <v>0.2709332333828348</v>
+        <v>-0.07439870983310211</v>
       </c>
       <c r="H6">
-        <v>0.2351883678686237</v>
+        <v>-0.07212816743204067</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>-0.1599712730445809</v>
       </c>
       <c r="J6">
-        <v>0.5074069347934529</v>
+        <v>0.18440315266362</v>
       </c>
       <c r="K6">
-        <v>0.05470295817205968</v>
+        <v>-0.1289741994122095</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -625,34 +625,34 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.002479258158944763</v>
+        <v>-0.1701428438369928</v>
       </c>
       <c r="C7">
-        <v>0.07912453548149308</v>
+        <v>-0.1701428438369928</v>
       </c>
       <c r="D7">
-        <v>0.09376473374667145</v>
+        <v>-0.07842425540566118</v>
       </c>
       <c r="E7">
-        <v>0.00064289916222157</v>
+        <v>-0.1694152792502155</v>
       </c>
       <c r="F7">
-        <v>0.2709332333828348</v>
+        <v>0.2234937901027327</v>
       </c>
       <c r="G7">
-        <v>0.9186110600771634</v>
+        <v>0.9771624989797251</v>
       </c>
       <c r="H7">
-        <v>0.07194100977914024</v>
+        <v>-0.1427002188220549</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>-0.1701428438369928</v>
       </c>
       <c r="J7">
-        <v>0.2555747046498084</v>
+        <v>0.1986294406832191</v>
       </c>
       <c r="K7">
-        <v>0.03052259858368543</v>
+        <v>-0.1411225171555383</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -660,34 +660,34 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.01052714385763167</v>
+        <v>-0.1477985869208379</v>
       </c>
       <c r="C8">
-        <v>0.1296889638098483</v>
+        <v>-0.1477985869208379</v>
       </c>
       <c r="D8">
-        <v>0.06182701125228537</v>
+        <v>-0.1417769297021504</v>
       </c>
       <c r="E8">
-        <v>0.0007657635538473922</v>
+        <v>-0.1471763592293747</v>
       </c>
       <c r="F8">
-        <v>0.2351883678686237</v>
+        <v>0.1146669585323724</v>
       </c>
       <c r="G8">
-        <v>0.07194100977914024</v>
+        <v>-0.1310889347583352</v>
       </c>
       <c r="H8">
-        <v>0.9573958831977023</v>
+        <v>0.9817339574452997</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>-0.1477985869208379</v>
       </c>
       <c r="J8">
-        <v>0.1005459482192243</v>
+        <v>-0.149826574723397</v>
       </c>
       <c r="K8">
-        <v>0.06400471380387752</v>
+        <v>-0.03874568048790421</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -695,34 +695,34 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>-0.1111111111111111</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-0.1111111111111111</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-0.1630256118468267</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-0.1123414923410171</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-0.2757456125906446</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>-0.1233791858883296</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>-0.1337202253769487</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>-0.1846437566879386</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>-0.1384662462032546</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -730,34 +730,34 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.009793653388846893</v>
+        <v>-0.187084323826317</v>
       </c>
       <c r="C10">
-        <v>0.1770447827922804</v>
+        <v>-0.187084323826317</v>
       </c>
       <c r="D10">
-        <v>0.2262523779327838</v>
+        <v>0.05330476504513585</v>
       </c>
       <c r="E10">
-        <v>0.001619109376505266</v>
+        <v>-0.1841472535797151</v>
       </c>
       <c r="F10">
-        <v>0.5074069347934529</v>
+        <v>0.6009351833811919</v>
       </c>
       <c r="G10">
-        <v>0.2555747046498084</v>
+        <v>-0.07762830258745962</v>
       </c>
       <c r="H10">
-        <v>0.1005459482192243</v>
+        <v>-0.1751514825114603</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>-0.1870843238263169</v>
       </c>
       <c r="J10">
-        <v>0.8097165991902835</v>
+        <v>0.942881499158577</v>
       </c>
       <c r="K10">
-        <v>0.1019619185969006</v>
+        <v>-0.04070905436071245</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -765,34 +765,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.01047276160379991</v>
+        <v>-0.1209744078453744</v>
       </c>
       <c r="C11">
-        <v>0.01248786412224395</v>
+        <v>-0.1209744078453744</v>
       </c>
       <c r="D11">
-        <v>0.04597115262086062</v>
+        <v>-0.1233085568334342</v>
       </c>
       <c r="E11">
-        <v>0.01017557414479986</v>
+        <v>-0.121977612445633</v>
       </c>
       <c r="F11">
-        <v>0.05470295817205968</v>
+        <v>-0.2116660278191328</v>
       </c>
       <c r="G11">
-        <v>0.03052259858368543</v>
+        <v>-0.1312785265891208</v>
       </c>
       <c r="H11">
-        <v>0.06400471380387752</v>
+        <v>-0.1433121137539676</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>-0.1209744078453744</v>
       </c>
       <c r="J11">
-        <v>0.1019619185969006</v>
+        <v>-0.1225273168467522</v>
       </c>
       <c r="K11">
-        <v>0.9978048293753743</v>
+        <v>0.9973176361332269</v>
       </c>
     </row>
   </sheetData>
